--- a/R Scripts/Dataset/CRQ3_1.xlsx
+++ b/R Scripts/Dataset/CRQ3_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusm\OneDrive\Documentos\uff\dissertacao\git\feature-toggles\R Scripts\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="113_{F3FE7B6F-EAA0-4856-8BB0-4437739CF3D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8F59E0F3-3353-4D50-9B37-4A913ED31DAA}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="113_{F3FE7B6F-EAA0-4856-8BB0-4437739CF3D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{063D6ADF-8BD5-4828-B0D2-A1693DC9A6F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C33DFF4C-EAFE-4080-8AB1-D1C414069469}"/>
   </bookViews>
@@ -35,10 +35,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>ISSUES_K_LOC_100_COMMITS_S_FW</t>
+    <t>ISSUES_PER_K_LOC_IN_100_COMMITS_WO_FT</t>
   </si>
   <si>
-    <t>ISSUES_K_LOC_100_COMMITS_C_FW</t>
+    <t>ISSUES_PER_K_LOC_IN_100_COMMITS_WITH_FT</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4823401F-1B9D-4219-BB9B-8CA11B135E2A}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/R Scripts/Dataset/CRQ3_1.xlsx
+++ b/R Scripts/Dataset/CRQ3_1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusm\OneDrive\Documentos\uff\dissertacao\git\feature-toggles\R Scripts\Dataset\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="113_{F3FE7B6F-EAA0-4856-8BB0-4437739CF3D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{063D6ADF-8BD5-4828-B0D2-A1693DC9A6F6}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C33DFF4C-EAFE-4080-8AB1-D1C414069469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -40,11 +34,44 @@
   <si>
     <t>ISSUES_PER_K_LOC_IN_100_COMMITS_WITH_FT</t>
   </si>
+  <si>
+    <t>Linguagem</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,10 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -213,7 +241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -407,903 +435,1143 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4823401F-1B9D-4219-BB9B-8CA11B135E2A}">
-  <dimension ref="A1:C80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>347655</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>1.3535307748271681E-2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2.9239325116153597E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>489645</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>9.3634912938018261E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>806511</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>1.9801241560420794E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.1903187116767342</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1059929</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.33270701238252326</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1338040</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>7.1592494057534109E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9.1595048709761567E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1352520</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>1.4204808987371212E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>9.1010883775867801E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1722606</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>0.55328838470592911</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.35605363054451078</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1799884</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0.55982057452426925</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.36854777077646156</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1848736</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>0.39659824465616916</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.17904615077118263</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2263742</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>0.16681595877428482</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2702122384175355</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2386842</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>5</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>2.4433939571739892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2416064</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
         <v>2.1820533639029718E-2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>9.5009754455596701E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2577146</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
         <v>0.58654036497474205</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2.2006166898180708E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2723436</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
         <v>0.32298967623457397</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.19593227016904916</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2995765</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>7</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>5.0117873479583472E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4693087</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
         <v>4.4682000164099199E-2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.52892296261878802</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5144181</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>0.38638591314237863</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.28270828886567539</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5197539</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>0.1728559766618375</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.16370726250227857</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5203368</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>7</v>
       </c>
       <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>2.2622849765998293E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5541660</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
         <v>4.6161735644621636E-2</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.61951451357946774</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6127047</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
         <v>0.72077364380694764</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1.6019578535568448</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6388572</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
         <v>1.1794770984863379</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2.0482510793806852</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8484604</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>1.2033632021668423E-2</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.3535675890287315E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8884773</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>0.57168786192342591</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.35201687595402198</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10199599</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
         <v>5.8964121852714053E-2</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.26255748842989962</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10391073</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>178.68917555255209</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10934610</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
         <v>0.22088508515568706</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.16154681505864421</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11246402</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
         <v>0.13844073507877105</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.13346747704559594</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11671912</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
         <v>3.5379281821806587E-2</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.20607173506968127</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13633443</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
         <v>0.25525896565389133</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>3.6936985351940459</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15344614</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>10</v>
       </c>
       <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>2.1143248681303132E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>16416867</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>4</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>4.2824401433862777E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16619668</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>7</v>
       </c>
       <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>3.6336051354758786E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16827151</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
         <v>4.4261892563812757E-2</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.70960689128239318</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17164513</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
         <v>2.9857844089846997</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.2009895403193768E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>19695722</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
         <v>0.38153969239509566</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.43274824513952548</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20538228</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
         <v>3.1458497747676423E-2</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.615338009358809</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>23722245</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
         <v>0.96609023282774609</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.21392067393569117</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24676571</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
         <v>0.18563476016187883</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.43580631140510928</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>24850244</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>5</v>
       </c>
       <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>2.0413162407120113</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>24998407</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
         <v>1.2906055699846881</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.74261572838584367</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>25745061</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
         <v>0.76296438572037939</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.52113516361561529</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>26767408</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
         <v>1.3309826671038367</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.79518243799635591</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>27963475</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
         <v>4.4999183946572152E-3</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>4.3202812642615669E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>28054380</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
         <v>2.7176275422862682E-2</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.41135773023429728</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>29340261</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
         <v>0.15464326832000272</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>9.561002497073344E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>30175039</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
         <v>1.7323706215472259</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.26431465835680507</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>34396268</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
         <v>13.392364776505065</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>2.1440855307413389</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>35300278</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
         <v>1.7237812866303521</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.98173827143951597</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>41607639</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
         <v>3.0747803807365252E-2</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>2.9948554941344302E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>42585709</v>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>6</v>
       </c>
       <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
         <v>4.5661595885561441E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>45260412</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
         <v>0.43576650825995422</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>3.6490502156905991</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>45866355</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
         <v>1.3377847496672299</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.26081241726657534</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>47632133</v>
       </c>
-      <c r="B55">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>9</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>2.7494542313711769E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>49892996</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
         <v>0.14809829622430798</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>0.10479830845050331</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50365703</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
         <v>2.1717067855652736</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>0.26554051615097884</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50667950</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
         <v>0.84690518540150583</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>0.57688823601054728</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>53135203</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
         <v>0.82851653319602414</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>2.9013338308645018</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>54648215</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
         <v>2.5735419969325025E-2</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>4.5805491598638559E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>71376869</v>
       </c>
-      <c r="B61">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>13</v>
       </c>
       <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
         <v>0.16050214859809409</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>71501855</v>
       </c>
-      <c r="B62">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>4</v>
       </c>
       <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
         <v>0.23358850042134821</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>72479761</v>
       </c>
-      <c r="B63">
-        <v>0</v>
+      <c r="B63" t="s">
+        <v>5</v>
       </c>
       <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
         <v>3.462923346019306E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>74074978</v>
       </c>
-      <c r="B64">
-        <v>0</v>
+      <c r="B64" t="s">
+        <v>4</v>
       </c>
       <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
         <v>6.9055679551262381E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>79148749</v>
       </c>
-      <c r="B65">
-        <v>0</v>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
         <v>0.11231484317164311</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>79465598</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
         <v>0.18896068274915517</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>0.20321812036980225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>86282367</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
         <v>0.32525288654655032</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>0.28656702731127048</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>93316749</v>
       </c>
-      <c r="B68">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>5</v>
       </c>
       <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
         <v>2.7074676834813786E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>93964532</v>
       </c>
-      <c r="B69">
-        <v>0</v>
+      <c r="B69" t="s">
+        <v>6</v>
       </c>
       <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
         <v>5.4720011381762378E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>95443579</v>
       </c>
-      <c r="B70">
-        <v>0</v>
+      <c r="B70" t="s">
+        <v>6</v>
       </c>
       <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
         <v>5.1161063851130255E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>96530667</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71">
         <v>5.7869028468321374E-3</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>2.7354013021480352E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>101262862</v>
       </c>
-      <c r="B72">
-        <v>0</v>
+      <c r="B72" t="s">
+        <v>6</v>
       </c>
       <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
         <v>2.6396325263272559E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>101472507</v>
       </c>
-      <c r="B73">
-        <v>0</v>
+      <c r="B73" t="s">
+        <v>6</v>
       </c>
       <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
         <v>2.6013581455844071E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>105359284</v>
       </c>
-      <c r="B74">
-        <v>0</v>
+      <c r="B74" t="s">
+        <v>6</v>
       </c>
       <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
         <v>2.1170850627550802E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>107367707</v>
       </c>
-      <c r="B75">
-        <v>0</v>
+      <c r="B75" t="s">
+        <v>6</v>
       </c>
       <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
         <v>2.2083568540889843E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>107553659</v>
       </c>
-      <c r="B76">
-        <v>0</v>
+      <c r="B76" t="s">
+        <v>6</v>
       </c>
       <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
         <v>1.9150944964769497E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>111772276</v>
       </c>
-      <c r="B77">
-        <v>0</v>
+      <c r="B77" t="s">
+        <v>6</v>
       </c>
       <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
         <v>1.4137853714573295E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>117831469</v>
       </c>
-      <c r="B78">
-        <v>0</v>
+      <c r="B78" t="s">
+        <v>9</v>
       </c>
       <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
         <v>0.16690872824597286</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>118666777</v>
       </c>
-      <c r="B79">
-        <v>0</v>
+      <c r="B79" t="s">
+        <v>5</v>
       </c>
       <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
         <v>4.7479112590656979E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>122976077</v>
       </c>
-      <c r="B80">
-        <v>0</v>
+      <c r="B80" t="s">
+        <v>7</v>
       </c>
       <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
         <v>6.7517543065886273E-3</v>
       </c>
     </row>
